--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/HuaTai_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/HuaTai_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Entrust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Entrust\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>证券代码</t>
   </si>
@@ -51,31 +51,16 @@
     <t>备注</t>
   </si>
   <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>已成(买卖)</t>
-  </si>
-  <si>
-    <t>买入</t>
+    <t>委托日期</t>
+  </si>
+  <si>
+    <t>交易市场</t>
+  </si>
+  <si>
+    <t>股东帐户</t>
   </si>
   <si>
     <t>交易类别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>网宿科技</t>
-  </si>
-  <si>
-    <t>日内</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>波段</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -670,11 +655,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,20 +1004,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1047,16 +1026,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1065,112 +1044,16 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0.39878472222222222</v>
-      </c>
-      <c r="B2">
-        <v>300017</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>800</v>
-      </c>
-      <c r="G2">
-        <v>800</v>
-      </c>
-      <c r="H2">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="I2">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="J2">
-        <v>5535</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>0.3989583333333333</v>
-      </c>
-      <c r="B3">
-        <v>300017</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>800</v>
-      </c>
-      <c r="G3">
-        <v>800</v>
-      </c>
-      <c r="H3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="I3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J3">
-        <v>5644</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>0.39957175925925931</v>
-      </c>
-      <c r="B4">
-        <v>300017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>800</v>
-      </c>
-      <c r="G4">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="I4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="J4">
-        <v>6039</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
